--- a/product/百度网盘/百度网盘App用户评论统计.xlsx
+++ b/product/百度网盘/百度网盘App用户评论统计.xlsx
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,6 +391,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +679,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,7 +735,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -752,6 +755,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -769,6 +773,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -786,6 +791,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -803,6 +809,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -817,6 +824,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -828,6 +836,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -839,6 +848,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -850,6 +860,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -858,6 +869,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -866,6 +878,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -873,7 +886,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -881,7 +895,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -889,7 +904,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -897,7 +913,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -905,7 +922,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -913,42 +931,52 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
